--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_investments_asset_management.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2462</v>
-      </c>
-      <c r="E2">
-        <v>0.19665</v>
+        <v>-0.231</v>
       </c>
       <c r="G2">
-        <v>0.1152993348115299</v>
+        <v>0.04281555060798082</v>
       </c>
       <c r="H2">
-        <v>0.1152993348115299</v>
+        <v>0.04281555060798082</v>
       </c>
       <c r="I2">
-        <v>0.4960088691796008</v>
+        <v>1.555060798081864</v>
       </c>
       <c r="J2">
-        <v>0.4955084819219165</v>
+        <v>1.555060798081864</v>
       </c>
       <c r="K2">
-        <v>125.61</v>
+        <v>-273.5</v>
       </c>
       <c r="L2">
-        <v>2.785144124168514</v>
+        <v>9.368042473026202</v>
       </c>
       <c r="M2">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>0.03727128981251412</v>
+        <v>0.02180232558139535</v>
       </c>
       <c r="O2">
-        <v>0.1313589682350131</v>
+        <v>-0.02193784277879342</v>
       </c>
       <c r="P2">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>0.03727128981251412</v>
+        <v>0.02180232558139535</v>
       </c>
       <c r="R2">
-        <v>0.1313589682350131</v>
+        <v>-0.02193784277879342</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>28.58</v>
+        <v>61.443</v>
       </c>
       <c r="V2">
-        <v>0.06455839168737294</v>
+        <v>0.2232667151162791</v>
       </c>
       <c r="W2">
-        <v>0.1541488134874761</v>
+        <v>-0.3027187840067399</v>
       </c>
       <c r="X2">
-        <v>0.0818488874801318</v>
+        <v>0.05445986347289031</v>
       </c>
       <c r="Y2">
-        <v>0.07229992600734431</v>
+        <v>-0.3571786474796302</v>
       </c>
       <c r="Z2">
-        <v>0.07644469455174763</v>
+        <v>-0.03749886007061782</v>
       </c>
       <c r="AA2">
-        <v>0.04507515191061294</v>
+        <v>-0.1087811529094109</v>
       </c>
       <c r="AB2">
-        <v>0.07945904273161361</v>
+        <v>0.05408425084444174</v>
       </c>
       <c r="AC2">
-        <v>-0.03438389082100066</v>
+        <v>-0.1628654037538527</v>
       </c>
       <c r="AD2">
-        <v>63.737</v>
+        <v>9.904000000000002</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>63.737</v>
+        <v>9.904000000000002</v>
       </c>
       <c r="AG2">
-        <v>35.157</v>
+        <v>-51.53899999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1258537587103628</v>
+        <v>0.03473820079690219</v>
       </c>
       <c r="AI2">
-        <v>0.0789667677234472</v>
+        <v>0.02091640197337298</v>
       </c>
       <c r="AJ2">
-        <v>0.07357221930410145</v>
+        <v>-0.2304335579291875</v>
       </c>
       <c r="AK2">
-        <v>0.04515661666390515</v>
+        <v>-0.1250761416392233</v>
       </c>
       <c r="AL2">
-        <v>0.229</v>
+        <v>1.423</v>
       </c>
       <c r="AM2">
-        <v>-0.031</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>8.256088082901554</v>
+        <v>-0.3095000000000001</v>
       </c>
       <c r="AO2">
-        <v>97.68558951965063</v>
+        <v>-31.90442726633873</v>
       </c>
       <c r="AP2">
-        <v>4.554015544041452</v>
+        <v>1.61059375</v>
       </c>
       <c r="AQ2">
-        <v>-721.6129032258063</v>
+        <v>-45.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Livermore Investments Group Limited (AIM:LIV)</t>
+          <t>Symphony International Holdings Limited (LSE:SIHL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +722,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0226</v>
-      </c>
-      <c r="E3">
-        <v>0.0553</v>
+        <v>-0.231</v>
       </c>
       <c r="G3">
-        <v>0.2810810810810811</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2810810810810811</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4145945945945946</v>
+        <v>-126.6666666666667</v>
       </c>
       <c r="J3">
-        <v>0.4137580859548072</v>
+        <v>-126.6666666666667</v>
       </c>
       <c r="K3">
-        <v>7.91</v>
+        <v>-241.6</v>
       </c>
       <c r="L3">
-        <v>0.4275675675675676</v>
+        <v>-2300.952380952381</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,7 +749,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,79 +758,73 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>19.7</v>
+        <v>0.643</v>
       </c>
       <c r="V3">
-        <v>0.1807339449541284</v>
+        <v>0.003440342429106474</v>
       </c>
       <c r="W3">
-        <v>0.04504555808656037</v>
+        <v>-0.4311206281227695</v>
       </c>
       <c r="X3">
-        <v>0.07775340571486961</v>
+        <v>0.05529513788145377</v>
       </c>
       <c r="Y3">
-        <v>-0.03270784762830924</v>
+        <v>-0.4864157660042232</v>
       </c>
       <c r="Z3">
-        <v>0.1403333105765803</v>
+        <v>0.0001708094742321707</v>
       </c>
       <c r="AA3">
-        <v>0.05806404197986736</v>
+        <v>-0.02163586673607496</v>
       </c>
       <c r="AB3">
-        <v>0.07767132319497674</v>
+        <v>0.05460701596477749</v>
       </c>
       <c r="AC3">
-        <v>-0.01960728121510939</v>
+        <v>-0.07624288270085244</v>
       </c>
       <c r="AD3">
-        <v>0.537</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.537</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AG3">
-        <v>-19.163</v>
+        <v>8.817</v>
       </c>
       <c r="AH3">
-        <v>0.004902453052393255</v>
+        <v>0.04817681808922387</v>
       </c>
       <c r="AI3">
-        <v>0.002925840566207359</v>
+        <v>0.02881861938707123</v>
       </c>
       <c r="AJ3">
-        <v>-0.2133085477030622</v>
+        <v>0.04504974018608501</v>
       </c>
       <c r="AK3">
-        <v>-0.1169638115932299</v>
+        <v>0.02691252285443063</v>
       </c>
       <c r="AL3">
-        <v>0.03</v>
+        <v>1.39</v>
       </c>
       <c r="AM3">
-        <v>-0.23</v>
-      </c>
-      <c r="AN3">
-        <v>0.06955958549222799</v>
+        <v>1.39</v>
       </c>
       <c r="AO3">
-        <v>255.6666666666667</v>
-      </c>
-      <c r="AP3">
-        <v>-2.482253886010363</v>
+        <v>-9.568345323741008</v>
       </c>
       <c r="AQ3">
-        <v>-33.34782608695652</v>
+        <v>-9.568345323741008</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Symphony International Holdings Limited (LSE:SIHL)</t>
+          <t>Livermore Investments Group Limited (AIM:LIV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -855,47 +843,41 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.515</v>
-      </c>
-      <c r="E4">
-        <v>0.338</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.04266211604095563</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.04266211604095563</v>
       </c>
       <c r="I4">
-        <v>0.5526315789473684</v>
+        <v>1.095563139931741</v>
       </c>
       <c r="J4">
-        <v>0.5526315789473684</v>
+        <v>1.095563139931741</v>
       </c>
       <c r="K4">
-        <v>117.7</v>
+        <v>-31.9</v>
       </c>
       <c r="L4">
-        <v>4.424812030075188</v>
+        <v>1.088737201365188</v>
       </c>
       <c r="M4">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>0.04944560982918789</v>
+        <v>0.0679501698754247</v>
       </c>
       <c r="O4">
-        <v>0.1401869158878505</v>
+        <v>-0.1880877742946709</v>
       </c>
       <c r="P4">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>0.04944560982918789</v>
+        <v>0.0679501698754247</v>
       </c>
       <c r="R4">
-        <v>0.1401869158878505</v>
+        <v>-0.1880877742946709</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,67 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>8.880000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="V4">
-        <v>0.02661072819898112</v>
+        <v>0.6885617214043035</v>
       </c>
       <c r="W4">
-        <v>0.2632520688883919</v>
+        <v>-0.1743169398907104</v>
       </c>
       <c r="X4">
-        <v>0.08594436924539399</v>
+        <v>0.05362458906432686</v>
       </c>
       <c r="Y4">
-        <v>0.1773076996429979</v>
+        <v>-0.2279415289550372</v>
       </c>
       <c r="Z4">
-        <v>0.05806085476055354</v>
+        <v>-0.1788362824026319</v>
       </c>
       <c r="AA4">
-        <v>0.03208626184135853</v>
+        <v>-0.1959264390827469</v>
       </c>
       <c r="AB4">
-        <v>0.08124676226825046</v>
+        <v>0.053561485724106</v>
       </c>
       <c r="AC4">
-        <v>-0.04916050042689193</v>
+        <v>-0.2494879248068529</v>
       </c>
       <c r="AD4">
-        <v>63.2</v>
+        <v>0.444</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>63.2</v>
+        <v>0.444</v>
       </c>
       <c r="AG4">
-        <v>54.32</v>
+        <v>-60.35599999999999</v>
       </c>
       <c r="AH4">
-        <v>0.1592340639959688</v>
+        <v>0.0050031551428829</v>
       </c>
       <c r="AI4">
-        <v>0.1013470173187941</v>
+        <v>0.003056924898791</v>
       </c>
       <c r="AJ4">
-        <v>0.1399927838771197</v>
+        <v>-2.159891210993415</v>
       </c>
       <c r="AK4">
-        <v>0.08836543466944299</v>
+        <v>-0.7147458670835107</v>
       </c>
       <c r="AL4">
-        <v>0.199</v>
+        <v>0.033</v>
       </c>
       <c r="AM4">
-        <v>0.199</v>
+        <v>-0.39</v>
+      </c>
+      <c r="AN4">
+        <v>-0.013875</v>
       </c>
       <c r="AO4">
-        <v>73.86934673366834</v>
+        <v>-972.7272727272727</v>
+      </c>
+      <c r="AP4">
+        <v>1.886125</v>
       </c>
       <c r="AQ4">
-        <v>73.86934673366834</v>
+        <v>82.30769230769231</v>
       </c>
     </row>
   </sheetData>
